--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_du_Nord/Centre_hospitalier_du_Nord.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_du_Nord/Centre_hospitalier_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier du Nord (abrégé en CHdN) est l'hôpital public du nord du Luxembourg, créé en 2010 par le regroupement des hôpitaux publics d'Ettelbruck et de Wiltz.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier du Nord est un établissement public créé par la loi du 20 avril 2009 entrée en vigueur le 1er janvier 2010 qui procède à la fusion de l'hôpital Saint-Louis d'Ettelbruck et de la clinique Saint-Joseph de Wiltz[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier du Nord est un établissement public créé par la loi du 20 avril 2009 entrée en vigueur le 1er janvier 2010 qui procède à la fusion de l'hôpital Saint-Louis d'Ettelbruck et de la clinique Saint-Joseph de Wiltz.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'organisation en deux sites issue des établissements fusionnés a été maintenue :
 Site d'Ettelbruck ;
